--- a/static/menciones_por_lista.xlsx
+++ b/static/menciones_por_lista.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>largo</t>
+          <t>lista</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -461,8 +461,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>119575</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A PULSO, POR EL BUEN VIVIR </t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>55</v>
@@ -478,8 +480,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>5031646</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>APRUEBO DIGNIDAD</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>677</v>
@@ -495,8 +499,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>44944</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARICA SIEMPRE ARICA </t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -512,8 +518,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>147605</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ASAMBLEA CONSTITUYENTE ATACAMA</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>65</v>
@@ -529,8 +537,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>583864</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASAMBLEA POPULAR CONSTITUYENTE </t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>104</v>
@@ -546,8 +556,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>59103</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASAMBLEA POPULAR POR LA DIGNIDAD </t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -563,8 +575,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>124556</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AUTONOMIA SOCIAL Y SINDICAL TARAPACA </t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -580,8 +594,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>33504</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIOBIO SIN PARTIDOS </t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>9</v>
@@ -597,8 +613,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>13599</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CABILDO AUTOCONVOCADO </t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -614,8 +632,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>364210</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>CANDIDATURA INDEPENDIENTE</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>69</v>
@@ -631,8 +651,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>44210</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHILE INDEPENDIENTE </t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>5</v>
@@ -648,8 +670,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>194836</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CIUDADANOS CRISTIANOS</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>29</v>
@@ -665,8 +689,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>50758</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMUNIDAD INDEPENDIENTE DE MAULE </t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>7</v>
@@ -682,8 +708,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>48042</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COMUNIDAD INDEPENDIENTE VENSEREMOS </t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>5</v>
@@ -699,8 +727,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>113741</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COORDINADORA SOCIAL DE MAGALLANES </t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>22</v>
@@ -716,8 +746,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>174021</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORRIENTES INDEPENDIENTES </t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>67</v>
@@ -733,8 +765,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>39800</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DECISION CIUDADANA </t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>32</v>
@@ -750,8 +784,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>100216</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELIGE LA LISTA DEL PUEBLO </t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>11</v>
@@ -767,8 +803,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>61732</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ENERGIA INDEPENDIENTE </t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>12</v>
@@ -784,8 +822,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>85236</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FUERZA SOCIAL DE ÑUBLE, LA LISTA DEL PUEBLO </t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>13</v>
@@ -801,8 +841,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>38419</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES COMO TU </t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>14</v>
@@ -818,8 +860,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>42339</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES CON CHILE </t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -835,8 +879,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>51125</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES DE TARAPACA </t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>28</v>
@@ -852,8 +898,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>145557</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES DE ÑUBLE POR LA NUEVA CONSTITUCION </t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>18</v>
@@ -869,8 +917,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>115424</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>INDEPENDIENTES DEL APRUEBO REGION COQUIMBO</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>18</v>
@@ -886,8 +936,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>98094</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES DEL BIOBIO POR UNA NUEVA CONSTITUCION </t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>30</v>
@@ -903,8 +955,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>72071</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES DEL NORTE GRANDE POR UNA NUEVA CONSTITUCION </t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>8</v>
@@ -920,8 +974,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>86334</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES DISTRITO 6 + LISTA DEL PUEBLO </t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>8</v>
@@ -937,8 +993,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>317765</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES NUEVA CONSTITUCION </t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>25</v>
@@ -954,8 +1012,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>2826125</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES POR LA NUEVA CONSTITUCION </t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>240</v>
@@ -971,8 +1031,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>20592</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES POR LA REGION DE COQUIMBO </t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>9</v>
@@ -988,8 +1050,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1688089</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES POR UNA NUEVA CONSTITUCION </t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>144</v>
@@ -1005,8 +1069,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>70979</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES SIN PADRINOS </t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>4</v>
@@ -1022,8 +1088,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>191694</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INDEPENDIENTES Y MOVIMIENTOS SOCIALES DEL APRUEBO </t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>30</v>
@@ -1039,8 +1107,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>173389</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INSULARES E INDEPENDIENTES </t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>36</v>
@@ -1056,8 +1126,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>118075</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>LA LISTA DEL PUEBLO</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>10</v>
@@ -1073,8 +1145,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>716990</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LA LISTA DEL PUEBLO </t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>80</v>
@@ -1090,8 +1164,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>75815</v>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LA LISTA DEL PUEBLO 100% INDEPENDIENTES </t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>4</v>
@@ -1107,8 +1183,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>111886</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LA LISTA DEL PUEBLO DISTRITO 12 </t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>7</v>
@@ -1124,8 +1202,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>107130</v>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LA LISTA DEL PUEBLO DISTRITO 14 </t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>10</v>
@@ -1141,8 +1221,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>123228</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LA LISTA DEL PUEBLO DISTRITO 9 </t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>7</v>
@@ -1158,8 +1240,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>87525</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LA LISTA DEL PUEBLO MAULE SUR </t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>5</v>
@@ -1175,8 +1259,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>5567466</v>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>LISTA DEL APRUEBO</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>948</v>
@@ -1192,8 +1278,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>45380</v>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LISTA DEL PUEBLO TRANSFORMANDO DESDE EL WILLI </t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>4</v>
@@ -1209,8 +1297,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>162404</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LISTA DEL PUEBLO – MOVIMIENTO TERRITORIAL CONSTITUYENTE </t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>58</v>
@@ -1226,8 +1316,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>37463</v>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LISTA DEL PUEBLO-RIOS INDEPENDIENTES </t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>15</v>
@@ -1243,8 +1335,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>11733</v>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LISTA INDEPENDIENTE PARTO SOCIAL </t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -1260,8 +1354,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>71659</v>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LISTA POR LA JUSTICIA SOCIAL </t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>7</v>
@@ -1277,8 +1373,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>269208</v>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LISTA SOCIAL PODER CONSTITUYENTE A TODA COSTA </t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>54</v>
@@ -1294,8 +1392,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>76419</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAGALLANICOS NO NEUTRALES </t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>6</v>
@@ -1311,8 +1411,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>87592</v>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOVIMIENTO INDEPENDIENTES DEL NORTE </t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>30</v>
@@ -1328,8 +1430,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>48633</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOVIMIENTO SOCIAL CONSTITUYENTE / LA LISTA DEL PUEBLO </t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>42</v>
@@ -1345,8 +1449,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>88020</v>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOVIMIENTO SOCIAL LA LISTA DEL PUEBLO </t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>5</v>
@@ -1362,8 +1468,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>254614</v>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES : UNIDAD DE INDEPENDIENTES </t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>65</v>
@@ -1379,8 +1487,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>35566</v>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES AUTONOMOS </t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>6</v>
@@ -1396,8 +1506,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>32176</v>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES INDEPENDIENTES </t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>8</v>
@@ -1413,8 +1525,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>138510</v>
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES PLURINACIONALES E INDEPENDIENTES </t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>12</v>
@@ -1430,8 +1544,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>333455</v>
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NOBLES HIJXOS DE TARAPACA </t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>50</v>
@@ -1447,8 +1563,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>80628</v>
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NUESTRAS VOCES </t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>16</v>
@@ -1464,8 +1582,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>427808</v>
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ORGANIZACIONES SOCIALES Y TERRITORIALES DEL WALLMAPU </t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>121</v>
@@ -1481,8 +1601,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>480363</v>
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>PARTIDO DE TRABAJADORES REVOLUCIONARIOS</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>53</v>
@@ -1498,8 +1620,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>815085</v>
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>PARTIDO ECOLOGISTA VERDE</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>390</v>
@@ -1515,8 +1639,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>44964</v>
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>PARTIDO HUMANISTA</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>5</v>
@@ -1532,8 +1658,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>394615</v>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>PARTIDO UNION PATRIOTICA</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>81</v>
@@ -1549,8 +1677,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>2787</v>
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PATAGONIA SOMOS TODOS </t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -1566,8 +1696,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>21800</v>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PUEBLO UNIDO TARAPACA </t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>4</v>
@@ -1583,8 +1715,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>169470</v>
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REGIONALISMO CIUDADANO INDEPENDIENTE </t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>24</v>
@@ -1600,8 +1734,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>21345</v>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">REPUBLICA DE LOS INDEPENDIENTES DE MAGALLANES </t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>3</v>
@@ -1617,8 +1753,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>44435</v>
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEXTA UNIDA </t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>14</v>
@@ -1634,8 +1772,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>31710</v>
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOBERANIA CIUDADANA </t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>3</v>
@@ -1651,8 +1791,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>16103</v>
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMATE AHORA </t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1668,8 +1810,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>3580523</v>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>VAMOS POR CHILE</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>423</v>
@@ -1685,8 +1829,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>41589</v>
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VOCES CONSTITUYENTES </t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>15</v>

--- a/static/menciones_por_lista.xlsx
+++ b/static/menciones_por_lista.xlsx
@@ -461,7 +461,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t xml:space="preserve">A PULSO, POR EL BUEN VIVIR </t>
         </is>
@@ -480,7 +480,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>APRUEBO DIGNIDAD</t>
         </is>
@@ -499,7 +499,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve">ARICA SIEMPRE ARICA </t>
         </is>
@@ -518,7 +518,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>ASAMBLEA CONSTITUYENTE ATACAMA</t>
         </is>
@@ -537,7 +537,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">ASAMBLEA POPULAR CONSTITUYENTE </t>
         </is>
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t xml:space="preserve">ASAMBLEA POPULAR POR LA DIGNIDAD </t>
         </is>
@@ -575,7 +575,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t xml:space="preserve">AUTONOMIA SOCIAL Y SINDICAL TARAPACA </t>
         </is>
@@ -594,7 +594,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t xml:space="preserve">BIOBIO SIN PARTIDOS </t>
         </is>
@@ -613,7 +613,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t xml:space="preserve">CABILDO AUTOCONVOCADO </t>
         </is>
@@ -632,7 +632,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>CANDIDATURA INDEPENDIENTE</t>
         </is>
@@ -651,7 +651,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">CHILE INDEPENDIENTE </t>
         </is>
@@ -670,7 +670,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>CIUDADANOS CRISTIANOS</t>
         </is>
@@ -689,7 +689,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t xml:space="preserve">COMUNIDAD INDEPENDIENTE DE MAULE </t>
         </is>
@@ -708,7 +708,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">COMUNIDAD INDEPENDIENTE VENSEREMOS </t>
         </is>
@@ -727,7 +727,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">COORDINADORA SOCIAL DE MAGALLANES </t>
         </is>
@@ -746,7 +746,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">CORRIENTES INDEPENDIENTES </t>
         </is>
@@ -765,7 +765,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">DECISION CIUDADANA </t>
         </is>
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">ELIGE LA LISTA DEL PUEBLO </t>
         </is>
@@ -803,7 +803,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">ENERGIA INDEPENDIENTE </t>
         </is>
@@ -822,7 +822,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">FUERZA SOCIAL DE ÑUBLE, LA LISTA DEL PUEBLO </t>
         </is>
@@ -841,7 +841,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES COMO TU </t>
         </is>
@@ -860,7 +860,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES CON CHILE </t>
         </is>
@@ -879,7 +879,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES DE TARAPACA </t>
         </is>
@@ -898,7 +898,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES DE ÑUBLE POR LA NUEVA CONSTITUCION </t>
         </is>
@@ -917,7 +917,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>INDEPENDIENTES DEL APRUEBO REGION COQUIMBO</t>
         </is>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES DEL BIOBIO POR UNA NUEVA CONSTITUCION </t>
         </is>
@@ -955,7 +955,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES DEL NORTE GRANDE POR UNA NUEVA CONSTITUCION </t>
         </is>
@@ -974,7 +974,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES DISTRITO 6 + LISTA DEL PUEBLO </t>
         </is>
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES NUEVA CONSTITUCION </t>
         </is>
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES POR LA NUEVA CONSTITUCION </t>
         </is>
@@ -1031,7 +1031,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES POR LA REGION DE COQUIMBO </t>
         </is>
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES POR UNA NUEVA CONSTITUCION </t>
         </is>
@@ -1069,7 +1069,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES SIN PADRINOS </t>
         </is>
@@ -1088,7 +1088,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t xml:space="preserve">INDEPENDIENTES Y MOVIMIENTOS SOCIALES DEL APRUEBO </t>
         </is>
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t xml:space="preserve">INSULARES E INDEPENDIENTES </t>
         </is>
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>LA LISTA DEL PUEBLO</t>
         </is>
@@ -1145,7 +1145,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t xml:space="preserve">LA LISTA DEL PUEBLO </t>
         </is>
@@ -1164,7 +1164,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t xml:space="preserve">LA LISTA DEL PUEBLO 100% INDEPENDIENTES </t>
         </is>
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t xml:space="preserve">LA LISTA DEL PUEBLO DISTRITO 12 </t>
         </is>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t xml:space="preserve">LA LISTA DEL PUEBLO DISTRITO 14 </t>
         </is>
@@ -1221,7 +1221,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t xml:space="preserve">LA LISTA DEL PUEBLO DISTRITO 9 </t>
         </is>
@@ -1240,7 +1240,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t xml:space="preserve">LA LISTA DEL PUEBLO MAULE SUR </t>
         </is>
@@ -1259,7 +1259,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>LISTA DEL APRUEBO</t>
         </is>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t xml:space="preserve">LISTA DEL PUEBLO TRANSFORMANDO DESDE EL WILLI </t>
         </is>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t xml:space="preserve">LISTA DEL PUEBLO – MOVIMIENTO TERRITORIAL CONSTITUYENTE </t>
         </is>
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" t="inlineStr">
         <is>
           <t xml:space="preserve">LISTA DEL PUEBLO-RIOS INDEPENDIENTES </t>
         </is>
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" t="inlineStr">
         <is>
           <t xml:space="preserve">LISTA INDEPENDIENTE PARTO SOCIAL </t>
         </is>
@@ -1354,7 +1354,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" t="inlineStr">
         <is>
           <t xml:space="preserve">LISTA POR LA JUSTICIA SOCIAL </t>
         </is>
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" t="inlineStr">
         <is>
           <t xml:space="preserve">LISTA SOCIAL PODER CONSTITUYENTE A TODA COSTA </t>
         </is>
@@ -1392,7 +1392,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" t="inlineStr">
         <is>
           <t xml:space="preserve">MAGALLANICOS NO NEUTRALES </t>
         </is>
@@ -1411,7 +1411,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" t="inlineStr">
         <is>
           <t xml:space="preserve">MOVIMIENTO INDEPENDIENTES DEL NORTE </t>
         </is>
@@ -1430,7 +1430,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t xml:space="preserve">MOVIMIENTO SOCIAL CONSTITUYENTE / LA LISTA DEL PUEBLO </t>
         </is>
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" t="inlineStr">
         <is>
           <t xml:space="preserve">MOVIMIENTO SOCIAL LA LISTA DEL PUEBLO </t>
         </is>
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" t="inlineStr">
         <is>
           <t xml:space="preserve">MOVIMIENTOS SOCIALES : UNIDAD DE INDEPENDIENTES </t>
         </is>
@@ -1487,7 +1487,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" t="inlineStr">
         <is>
           <t xml:space="preserve">MOVIMIENTOS SOCIALES AUTONOMOS </t>
         </is>
@@ -1506,7 +1506,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="A57" t="inlineStr">
         <is>
           <t xml:space="preserve">MOVIMIENTOS SOCIALES INDEPENDIENTES </t>
         </is>
@@ -1525,7 +1525,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" t="inlineStr">
         <is>
           <t xml:space="preserve">MOVIMIENTOS SOCIALES PLURINACIONALES E INDEPENDIENTES </t>
         </is>
@@ -1544,7 +1544,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" t="inlineStr">
         <is>
           <t xml:space="preserve">NOBLES HIJXOS DE TARAPACA </t>
         </is>
@@ -1563,7 +1563,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" t="inlineStr">
         <is>
           <t xml:space="preserve">NUESTRAS VOCES </t>
         </is>
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" t="inlineStr">
         <is>
           <t xml:space="preserve">ORGANIZACIONES SOCIALES Y TERRITORIALES DEL WALLMAPU </t>
         </is>
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" t="inlineStr">
         <is>
           <t>PARTIDO DE TRABAJADORES REVOLUCIONARIOS</t>
         </is>
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>PARTIDO ECOLOGISTA VERDE</t>
         </is>
@@ -1639,7 +1639,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" t="inlineStr">
         <is>
           <t>PARTIDO HUMANISTA</t>
         </is>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" t="inlineStr">
         <is>
           <t>PARTIDO UNION PATRIOTICA</t>
         </is>
@@ -1677,7 +1677,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="A66" t="inlineStr">
         <is>
           <t xml:space="preserve">PATAGONIA SOMOS TODOS </t>
         </is>
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="A67" t="inlineStr">
         <is>
           <t xml:space="preserve">PUEBLO UNIDO TARAPACA </t>
         </is>
@@ -1715,7 +1715,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+      <c r="A68" t="inlineStr">
         <is>
           <t xml:space="preserve">REGIONALISMO CIUDADANO INDEPENDIENTE </t>
         </is>
@@ -1734,7 +1734,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="A69" t="inlineStr">
         <is>
           <t xml:space="preserve">REPUBLICA DE LOS INDEPENDIENTES DE MAGALLANES </t>
         </is>
@@ -1753,7 +1753,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="A70" t="inlineStr">
         <is>
           <t xml:space="preserve">SEXTA UNIDA </t>
         </is>
@@ -1772,7 +1772,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="A71" t="inlineStr">
         <is>
           <t xml:space="preserve">SOBERANIA CIUDADANA </t>
         </is>
@@ -1791,7 +1791,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t xml:space="preserve">SUMATE AHORA </t>
         </is>
@@ -1810,7 +1810,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>VAMOS POR CHILE</t>
         </is>
@@ -1829,7 +1829,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t xml:space="preserve">VOCES CONSTITUYENTES </t>
         </is>

--- a/static/menciones_por_lista.xlsx
+++ b/static/menciones_por_lista.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,1330 +520,779 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ASAMBLEA CONSTITUYENTE ATACAMA</t>
+          <t xml:space="preserve">ASAMBLEA POPULAR CONSTITUYENTE </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>288</v>
       </c>
       <c r="E5" t="n">
-        <v>205</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASAMBLEA POPULAR CONSTITUYENTE </t>
+          <t xml:space="preserve">ASAMBLEA POPULAR POR LA DIGNIDAD </t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>392</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASAMBLEA POPULAR POR LA DIGNIDAD </t>
+          <t xml:space="preserve">AUTONOMIA SOCIAL Y SINDICAL TARAPACA </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">AUTONOMIA SOCIAL Y SINDICAL TARAPACA </t>
+          <t xml:space="preserve">BIOBIO SIN PARTIDOS </t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">BIOBIO SIN PARTIDOS </t>
+          <t xml:space="preserve">CABILDO AUTOCONVOCADO </t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">CABILDO AUTOCONVOCADO </t>
+          <t>CANDIDATURA INDEPENDIENTE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CANDIDATURA INDEPENDIENTE</t>
+          <t xml:space="preserve">CHILE INDEPENDIENTE </t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>201</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHILE INDEPENDIENTE </t>
+          <t>CIUDADANOS CRISTIANOS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CIUDADANOS CRISTIANOS</t>
+          <t xml:space="preserve">COMUNIDAD INDEPENDIENTE DE MAULE </t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">COMUNIDAD INDEPENDIENTE DE MAULE </t>
+          <t xml:space="preserve">COMUNIDAD INDEPENDIENTE VENSEREMOS </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">COMUNIDAD INDEPENDIENTE VENSEREMOS </t>
+          <t xml:space="preserve">CORRIENTES INDEPENDIENTES </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">COORDINADORA SOCIAL DE MAGALLANES </t>
+          <t xml:space="preserve">DECISION CIUDADANA </t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORRIENTES INDEPENDIENTES </t>
+          <t xml:space="preserve">ENERGIA INDEPENDIENTE </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>120</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">DECISION CIUDADANA </t>
+          <t xml:space="preserve">INSULARES E INDEPENDIENTES </t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="E18" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">ELIGE LA LISTA DEL PUEBLO </t>
+          <t xml:space="preserve">Independientes No Neutrales </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>602</v>
       </c>
       <c r="C19" t="n">
-        <v>22</v>
+        <v>710</v>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>2089</v>
       </c>
       <c r="E19" t="n">
-        <v>75</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGIA INDEPENDIENTE </t>
+          <t>LISTA DEL APRUEBO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>948</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>1103</v>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">FUERZA SOCIAL DE ÑUBLE, LA LISTA DEL PUEBLO </t>
+          <t xml:space="preserve">LISTA INDEPENDIENTE PARTO SOCIAL </t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES COMO TU </t>
+          <t xml:space="preserve">LISTA POR LA JUSTICIA SOCIAL </t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES CON CHILE </t>
+          <t xml:space="preserve">LISTA SOCIAL PODER CONSTITUYENTE A TODA COSTA </t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES DE TARAPACA </t>
+          <t xml:space="preserve">Lista del Pueblo </t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>850</v>
       </c>
       <c r="E24" t="n">
-        <v>52</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES DE ÑUBLE POR LA NUEVA CONSTITUCION </t>
+          <t xml:space="preserve">MAGALLANICOS NO NEUTRALES </t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E25" t="n">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INDEPENDIENTES DEL APRUEBO REGION COQUIMBO</t>
+          <t xml:space="preserve">MOVIMIENTO INDEPENDIENTES DEL NORTE </t>
         </is>
       </c>
       <c r="B26" t="n">
+        <v>30</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>18</v>
       </c>
-      <c r="C26" t="n">
-        <v>12</v>
-      </c>
-      <c r="D26" t="n">
-        <v>54</v>
-      </c>
       <c r="E26" t="n">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES DEL BIOBIO POR UNA NUEVA CONSTITUCION </t>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES : UNIDAD DE INDEPENDIENTES </t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E27" t="n">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES DEL NORTE GRANDE POR UNA NUEVA CONSTITUCION </t>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES AUTONOMOS </t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES DISTRITO 6 + LISTA DEL PUEBLO </t>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES INDEPENDIENTES </t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E29" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES NUEVA CONSTITUCION </t>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES PLURINACIONALES E INDEPENDIENTES </t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="E30" t="n">
-        <v>197</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES POR LA NUEVA CONSTITUCION </t>
+          <t xml:space="preserve">NOBLES HIJXOS DE TARAPACA </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="C31" t="n">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>992</v>
+        <v>27</v>
       </c>
       <c r="E31" t="n">
-        <v>1596</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES POR LA REGION DE COQUIMBO </t>
+          <t xml:space="preserve">NUESTRAS VOCES </t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES POR UNA NUEVA CONSTITUCION </t>
+          <t xml:space="preserve">ORGANIZACIONES SOCIALES Y TERRITORIALES DEL WALLMAPU </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C33" t="n">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="D33" t="n">
-        <v>590</v>
+        <v>286</v>
       </c>
       <c r="E33" t="n">
-        <v>946</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES SIN PADRINOS </t>
+          <t>PARTIDO DE TRABAJADORES REVOLUCIONARIOS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="D34" t="n">
-        <v>29</v>
-      </c>
       <c r="E34" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">INDEPENDIENTES Y MOVIMIENTOS SOCIALES DEL APRUEBO </t>
+          <t>PARTIDO ECOLOGISTA VERDE</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="C35" t="n">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="D35" t="n">
-        <v>70</v>
+        <v>413</v>
       </c>
       <c r="E35" t="n">
-        <v>114</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">INSULARES E INDEPENDIENTES </t>
+          <t>PARTIDO HUMANISTA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LA LISTA DEL PUEBLO</t>
+          <t>PARTIDO UNION PATRIOTICA</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="E37" t="n">
-        <v>64</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">LA LISTA DEL PUEBLO </t>
+          <t xml:space="preserve">PATAGONIA SOMOS TODOS </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>282</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">LA LISTA DEL PUEBLO 100% INDEPENDIENTES </t>
+          <t xml:space="preserve">PUEBLO UNIDO TARAPACA </t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>4</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">LA LISTA DEL PUEBLO DISTRITO 12 </t>
+          <t xml:space="preserve">REGIONALISMO CIUDADANO INDEPENDIENTE </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">LA LISTA DEL PUEBLO DISTRITO 14 </t>
+          <t xml:space="preserve">SEXTA UNIDA </t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E41" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">LA LISTA DEL PUEBLO DISTRITO 9 </t>
+          <t xml:space="preserve">SOBERANIA CIUDADANA </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">LA LISTA DEL PUEBLO MAULE SUR </t>
+          <t xml:space="preserve">SUMATE AHORA </t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LISTA DEL APRUEBO</t>
+          <t>VAMOS POR CHILE</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>948</v>
+        <v>423</v>
       </c>
       <c r="C44" t="n">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="D44" t="n">
-        <v>1103</v>
+        <v>804</v>
       </c>
       <c r="E44" t="n">
-        <v>2273</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">LISTA DEL PUEBLO TRANSFORMANDO DESDE EL WILLI </t>
+          <t xml:space="preserve">VOCES CONSTITUYENTES </t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E45" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LISTA DEL PUEBLO – MOVIMIENTO TERRITORIAL CONSTITUYENTE </t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>58</v>
-      </c>
-      <c r="C46" t="n">
-        <v>21</v>
-      </c>
-      <c r="D46" t="n">
-        <v>78</v>
-      </c>
-      <c r="E46" t="n">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LISTA DEL PUEBLO-RIOS INDEPENDIENTES </t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>15</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>9</v>
-      </c>
-      <c r="E47" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LISTA INDEPENDIENTE PARTO SOCIAL </t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>6</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>6</v>
-      </c>
-      <c r="E48" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LISTA POR LA JUSTICIA SOCIAL </t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>7</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7</v>
-      </c>
-      <c r="D49" t="n">
-        <v>23</v>
-      </c>
-      <c r="E49" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LISTA SOCIAL PODER CONSTITUYENTE A TODA COSTA </t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>54</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>36</v>
-      </c>
-      <c r="E50" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MAGALLANICOS NO NEUTRALES </t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>6</v>
-      </c>
-      <c r="C51" t="n">
-        <v>7</v>
-      </c>
-      <c r="D51" t="n">
-        <v>22</v>
-      </c>
-      <c r="E51" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTO INDEPENDIENTES DEL NORTE </t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>30</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>18</v>
-      </c>
-      <c r="E52" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTO SOCIAL CONSTITUYENTE / LA LISTA DEL PUEBLO </t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>42</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>20</v>
-      </c>
-      <c r="E53" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTO SOCIAL LA LISTA DEL PUEBLO </t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" t="n">
-        <v>20</v>
-      </c>
-      <c r="D54" t="n">
-        <v>35</v>
-      </c>
-      <c r="E54" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTOS SOCIALES : UNIDAD DE INDEPENDIENTES </t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>65</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>82</v>
-      </c>
-      <c r="E55" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTOS SOCIALES AUTONOMOS </t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>6</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>11</v>
-      </c>
-      <c r="E56" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTOS SOCIALES INDEPENDIENTES </t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>48</v>
-      </c>
-      <c r="E57" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTOS SOCIALES PLURINACIONALES E INDEPENDIENTES </t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>12</v>
-      </c>
-      <c r="C58" t="n">
-        <v>12</v>
-      </c>
-      <c r="D58" t="n">
-        <v>66</v>
-      </c>
-      <c r="E58" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NOBLES HIJXOS DE TARAPACA </t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>50</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>27</v>
-      </c>
-      <c r="E59" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NUESTRAS VOCES </t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>16</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>124</v>
-      </c>
-      <c r="E60" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ORGANIZACIONES SOCIALES Y TERRITORIALES DEL WALLMAPU </t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>121</v>
-      </c>
-      <c r="C61" t="n">
-        <v>21</v>
-      </c>
-      <c r="D61" t="n">
-        <v>286</v>
-      </c>
-      <c r="E61" t="n">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>PARTIDO DE TRABAJADORES REVOLUCIONARIOS</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>53</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>7</v>
-      </c>
-      <c r="E62" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>PARTIDO ECOLOGISTA VERDE</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>390</v>
-      </c>
-      <c r="C63" t="n">
-        <v>205</v>
-      </c>
-      <c r="D63" t="n">
-        <v>413</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>PARTIDO HUMANISTA</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>5</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>14</v>
-      </c>
-      <c r="E64" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>PARTIDO UNION PATRIOTICA</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>81</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>87</v>
-      </c>
-      <c r="E65" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PATAGONIA SOMOS TODOS </t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PUEBLO UNIDO TARAPACA </t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>4</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>11</v>
-      </c>
-      <c r="E67" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REGIONALISMO CIUDADANO INDEPENDIENTE </t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>24</v>
-      </c>
-      <c r="C68" t="n">
-        <v>12</v>
-      </c>
-      <c r="D68" t="n">
-        <v>42</v>
-      </c>
-      <c r="E68" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REPUBLICA DE LOS INDEPENDIENTES DE MAGALLANES </t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEXTA UNIDA </t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>14</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>20</v>
-      </c>
-      <c r="E70" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOBERANIA CIUDADANA </t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>3</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>6</v>
-      </c>
-      <c r="E71" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUMATE AHORA </t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>12</v>
-      </c>
-      <c r="E72" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>VAMOS POR CHILE</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>423</v>
-      </c>
-      <c r="C73" t="n">
-        <v>98</v>
-      </c>
-      <c r="D73" t="n">
-        <v>804</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VOCES CONSTITUYENTES </t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>15</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>23</v>
-      </c>
-      <c r="E74" t="n">
         <v>38</v>
       </c>
     </row>

--- a/static/menciones_por_lista.xlsx
+++ b/static/menciones_por_lista.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,837 +463,305 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A PULSO, POR EL BUEN VIVIR </t>
+          <t>APRUEBO DIGNIDAD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>319</v>
       </c>
       <c r="E2" t="n">
-        <v>115</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>APRUEBO DIGNIDAD</t>
+          <t xml:space="preserve">ASAMBLEA POPULAR CONSTITUYENTE </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>677</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1564</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>2524</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ARICA SIEMPRE ARICA </t>
+          <t xml:space="preserve">ASAMBLEA POPULAR POR LA DIGNIDAD </t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASAMBLEA POPULAR CONSTITUYENTE </t>
+          <t>CANDIDATURA INDEPENDIENTE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ASAMBLEA POPULAR POR LA DIGNIDAD </t>
+          <t xml:space="preserve">CORRIENTES INDEPENDIENTES </t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">AUTONOMIA SOCIAL Y SINDICAL TARAPACA </t>
+          <t xml:space="preserve">INSULARES E INDEPENDIENTES </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">BIOBIO SIN PARTIDOS </t>
+          <t xml:space="preserve">Independientes No Neutrales </t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">CABILDO AUTOCONVOCADO </t>
+          <t>LISTA DEL APRUEBO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CANDIDATURA INDEPENDIENTE</t>
+          <t xml:space="preserve">Lista del Pueblo </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D10" t="n">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="E10" t="n">
-        <v>201</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHILE INDEPENDIENTE </t>
+          <t xml:space="preserve">MOVIMIENTO INDEPENDIENTES DEL NORTE </t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CIUDADANOS CRISTIANOS</t>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES AUTONOMOS </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">COMUNIDAD INDEPENDIENTE DE MAULE </t>
+          <t xml:space="preserve">MOVIMIENTOS SOCIALES INDEPENDIENTES </t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
         <v>7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">COMUNIDAD INDEPENDIENTE VENSEREMOS </t>
+          <t>ORIGINARIOS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORRIENTES INDEPENDIENTES </t>
+          <t xml:space="preserve">REGIONALISMO CIUDADANO INDEPENDIENTE </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="n">
         <v>13</v>
-      </c>
-      <c r="D15" t="n">
-        <v>40</v>
-      </c>
-      <c r="E15" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">DECISION CIUDADANA </t>
+          <t>VAMOS POR CHILE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENERGIA INDEPENDIENTE </t>
+          <t xml:space="preserve">VOCES CONSTITUYENTES </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INSULARES E INDEPENDIENTES </t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>36</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>114</v>
-      </c>
-      <c r="E18" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Independientes No Neutrales </t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>602</v>
-      </c>
-      <c r="C19" t="n">
-        <v>710</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2089</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LISTA DEL APRUEBO</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>948</v>
-      </c>
-      <c r="C20" t="n">
-        <v>222</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1103</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LISTA INDEPENDIENTE PARTO SOCIAL </t>
-        </is>
-      </c>
-      <c r="B21" t="n">
         <v>6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6</v>
-      </c>
-      <c r="E21" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LISTA POR LA JUSTICIA SOCIAL </t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>23</v>
-      </c>
-      <c r="E22" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LISTA SOCIAL PODER CONSTITUYENTE A TODA COSTA </t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>54</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>36</v>
-      </c>
-      <c r="E23" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lista del Pueblo </t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>336</v>
-      </c>
-      <c r="C24" t="n">
-        <v>317</v>
-      </c>
-      <c r="D24" t="n">
-        <v>850</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MAGALLANICOS NO NEUTRALES </t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>22</v>
-      </c>
-      <c r="E25" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTO INDEPENDIENTES DEL NORTE </t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>30</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>18</v>
-      </c>
-      <c r="E26" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTOS SOCIALES : UNIDAD DE INDEPENDIENTES </t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>65</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>82</v>
-      </c>
-      <c r="E27" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTOS SOCIALES AUTONOMOS </t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>6</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>11</v>
-      </c>
-      <c r="E28" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTOS SOCIALES INDEPENDIENTES </t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>8</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>48</v>
-      </c>
-      <c r="E29" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MOVIMIENTOS SOCIALES PLURINACIONALES E INDEPENDIENTES </t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>12</v>
-      </c>
-      <c r="C30" t="n">
-        <v>12</v>
-      </c>
-      <c r="D30" t="n">
-        <v>66</v>
-      </c>
-      <c r="E30" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NOBLES HIJXOS DE TARAPACA </t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>50</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>27</v>
-      </c>
-      <c r="E31" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NUESTRAS VOCES </t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>16</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>124</v>
-      </c>
-      <c r="E32" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ORGANIZACIONES SOCIALES Y TERRITORIALES DEL WALLMAPU </t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>121</v>
-      </c>
-      <c r="C33" t="n">
-        <v>21</v>
-      </c>
-      <c r="D33" t="n">
-        <v>286</v>
-      </c>
-      <c r="E33" t="n">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>PARTIDO DE TRABAJADORES REVOLUCIONARIOS</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>53</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>7</v>
-      </c>
-      <c r="E34" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>PARTIDO ECOLOGISTA VERDE</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>390</v>
-      </c>
-      <c r="C35" t="n">
-        <v>205</v>
-      </c>
-      <c r="D35" t="n">
-        <v>413</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>PARTIDO HUMANISTA</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>14</v>
-      </c>
-      <c r="E36" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PARTIDO UNION PATRIOTICA</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>81</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>87</v>
-      </c>
-      <c r="E37" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PATAGONIA SOMOS TODOS </t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PUEBLO UNIDO TARAPACA </t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>11</v>
-      </c>
-      <c r="E39" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REGIONALISMO CIUDADANO INDEPENDIENTE </t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>24</v>
-      </c>
-      <c r="C40" t="n">
-        <v>12</v>
-      </c>
-      <c r="D40" t="n">
-        <v>42</v>
-      </c>
-      <c r="E40" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEXTA UNIDA </t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>20</v>
-      </c>
-      <c r="E41" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SOBERANIA CIUDADANA </t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>3</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>6</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUMATE AHORA </t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>12</v>
-      </c>
-      <c r="E43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>VAMOS POR CHILE</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>423</v>
-      </c>
-      <c r="C44" t="n">
-        <v>98</v>
-      </c>
-      <c r="D44" t="n">
-        <v>804</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VOCES CONSTITUYENTES </t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>15</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>23</v>
-      </c>
-      <c r="E45" t="n">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
